--- a/public/plugin/xls/Surat Kematian.xlsx
+++ b/public/plugin/xls/Surat Kematian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa offline\public\plugin\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CV ABS\Aplikasi Pelayanan Umum Cmg I\Format Surat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ED3806-8733-4C21-8021-97C99B7F5504}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D27F012B-30AE-47BE-B293-B18C4F4757A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{BDE49C4D-C9D1-4C95-8060-91F53A3FE426}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BDE49C4D-C9D1-4C95-8060-91F53A3FE426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,10 @@
     <t>Cibungbulang</t>
   </si>
   <si>
-    <t>Ciaruteun Ilir</t>
-  </si>
-  <si>
-    <t>Ciaruteun Ilir,</t>
+    <t>Cimanggu Satu</t>
+  </si>
+  <si>
+    <t>Cimanggu,</t>
   </si>
 </sst>
 </file>
@@ -233,6 +233,42 @@
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -242,91 +278,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,345 +645,357 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8843A390-243C-4F6A-8DC2-FF87348860CD}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="1.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="2.5703125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="11.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.54296875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="32"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A6:F7"/>
@@ -992,18 +1004,6 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" orientation="portrait" r:id="rId1"/>

--- a/public/plugin/xls/Surat Kematian.xlsx
+++ b/public/plugin/xls/Surat Kematian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CV ABS\Aplikasi Pelayanan Umum Cmg I\Format Surat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D27F012B-30AE-47BE-B293-B18C4F4757A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74BF257-2552-4A13-AE15-542E8BFB84A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BDE49C4D-C9D1-4C95-8060-91F53A3FE426}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9300" windowHeight="2085" xr2:uid="{BDE49C4D-C9D1-4C95-8060-91F53A3FE426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -269,6 +269,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -281,12 +320,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -295,39 +328,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,30 +645,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8843A390-243C-4F6A-8DC2-FF87348860CD}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="1.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.54296875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -676,29 +676,29 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -706,25 +706,25 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -732,83 +732,83 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -816,17 +816,17 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -834,55 +834,55 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="19" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-    </row>
-    <row r="20" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-    </row>
-    <row r="21" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -890,25 +890,25 @@
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -916,7 +916,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -924,25 +924,25 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -950,7 +950,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -958,7 +958,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -966,15 +966,15 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -984,6 +984,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:F7"/>
+    <mergeCell ref="A23:F24"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C4:E4"/>
@@ -996,14 +1004,6 @@
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:F7"/>
-    <mergeCell ref="A23:F24"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" orientation="portrait" r:id="rId1"/>
